--- a/MouseData.xlsx
+++ b/MouseData.xlsx
@@ -32,10 +32,10 @@
     <t>Wheel (counts)</t>
   </si>
   <si>
-    <t>Total Distance Traveled (ft)</t>
-  </si>
-  <si>
-    <t>Velocity (ft/hr)</t>
+    <t>Total Distance Traveled (km)</t>
+  </si>
+  <si>
+    <t>Velocity (km/hr)</t>
   </si>
   <si>
     <t>002100000A2B0</t>
@@ -56,10 +56,10 @@
     <t>Cumulative Wheel (counts)</t>
   </si>
   <si>
-    <t>Cumulative Distance Traveled (ft)</t>
-  </si>
-  <si>
-    <t>Average Velocity (ft/hr)</t>
+    <t>Cumulative Distance Traveled (km)</t>
+  </si>
+  <si>
+    <t>Average Velocity (km/hr)</t>
   </si>
 </sst>
 </file>
@@ -134,6 +134,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="plot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="0"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,10 +529,10 @@
         <v>90</v>
       </c>
       <c r="E4">
-        <v>1024.94460323367</v>
+        <v>0.002603359292213522</v>
       </c>
       <c r="F4">
-        <v>80213.05590524373</v>
+        <v>0.2037411619993191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -506,10 +549,10 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>409.977841293468</v>
+        <v>0.001041343716885409</v>
       </c>
       <c r="F5">
-        <v>92245.0142910303</v>
+        <v>0.2343023362992169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -526,10 +569,10 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>387.201294554942</v>
+        <v>0.0009834912881695526</v>
       </c>
       <c r="F6">
-        <v>23232.07767329652</v>
+        <v>0.05900947729017316</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -546,10 +589,10 @@
         <v>71</v>
       </c>
       <c r="E7">
-        <v>808.567409217673</v>
+        <v>0.002053761219412889</v>
       </c>
       <c r="F7">
-        <v>138611.5558658868</v>
+        <v>0.3520733518993524</v>
       </c>
     </row>
   </sheetData>
@@ -624,10 +667,10 @@
         <v>90</v>
       </c>
       <c r="E4">
-        <v>1024.94460323367</v>
+        <v>0.002603359292213522</v>
       </c>
       <c r="F4">
-        <v>80213.05590524373</v>
+        <v>0.2037411619993191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -644,10 +687,10 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>409.977841293468</v>
+        <v>0.001041343716885409</v>
       </c>
       <c r="F5">
-        <v>92245.0142910303</v>
+        <v>0.2343023362992169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -664,10 +707,10 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>387.201294554942</v>
+        <v>0.0009834912881695526</v>
       </c>
       <c r="F6">
-        <v>23232.07767329652</v>
+        <v>0.05900947729017316</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -684,10 +727,10 @@
         <v>71</v>
       </c>
       <c r="E7">
-        <v>808.567409217673</v>
+        <v>0.002053761219412889</v>
       </c>
       <c r="F7">
-        <v>138611.5558658868</v>
+        <v>0.3520733518993524</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -723,10 +766,10 @@
         <v>34</v>
       </c>
       <c r="D12">
-        <v>387.201294554942</v>
+        <v>0.0009834912881695526</v>
       </c>
       <c r="E12">
-        <v>19360.0647277471</v>
+        <v>0.04917456440847763</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -740,13 +783,14 @@
         <v>197</v>
       </c>
       <c r="D13">
-        <v>2243.489853744811</v>
+        <v>0.00569846422851182</v>
       </c>
       <c r="E13">
-        <v>97307.99365640145</v>
+        <v>0.2471623038872597</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>